--- a/Iteration3/defect_log.xlsx
+++ b/Iteration3/defect_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw12_000\Desktop\Ara\BCPR280_Part1\Q3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw12_000\Desktop\Ara\BCPR280_Part1\Iteration3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350425C-0D2A-485C-89D4-8330A311EE79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785297CB-905D-47D2-BC7A-0BDEF465AD68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="2865" windowWidth="18330" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,10 +627,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Number Guessing Game Q2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>If user puts other than ["Try Higher", "Try Lower", "Correct"] then program tells user to put one of those. But by doing it, it keeps comparing with Try higher, Try Lower or Correct instead of randomly generated number. Hence I had to store sepeartely so it still remember previous number after user put something bad.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -640,6 +636,10 @@
   </si>
   <si>
     <t>While doing test4, had to decalre gameThreeTest object once again to change the min and max attribute, otherwise it keeps telling me that min and max are undefined even though I am creating an object, gameThreeTest before each test.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Guessing Game Q3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
